--- a/public/download_template/Template_Non_ASN.xlsx
+++ b/public/download_template/Template_Non_ASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Magang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132412A-D390-4C62-8D16-F237CC54F7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C31BCA-2983-4A4C-A212-560D86C777FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D8B931-D9EC-48E6-BFAD-78B74B89879F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED3526F4-F177-4724-A31B-FA708E72862E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>NIK</t>
   </si>
@@ -72,6 +72,9 @@
     <t>No WA</t>
   </si>
   <si>
+    <t>Status Pegawai</t>
+  </si>
+  <si>
     <t>Nama Ruangan</t>
   </si>
   <si>
@@ -84,13 +87,13 @@
     <t>Status Tipe</t>
   </si>
   <si>
-    <t>NI PPT-PK/THL</t>
+    <t>NI-PPT-PK/THL</t>
   </si>
   <si>
     <t>Pend Terakhir</t>
   </si>
   <si>
-    <t xml:space="preserve">Tgl Lulus </t>
+    <t>Tgl Lulus</t>
   </si>
   <si>
     <t>No Ijazah</t>
@@ -102,49 +105,58 @@
     <t>Tgl Masuk</t>
   </si>
   <si>
-    <t>Titis</t>
-  </si>
-  <si>
-    <t>Rahayu</t>
-  </si>
-  <si>
-    <t>S.T</t>
-  </si>
-  <si>
-    <t>[perempuan, laki-laki]</t>
-  </si>
-  <si>
-    <t>Banyuwangi</t>
-  </si>
-  <si>
-    <t>14/09/2001</t>
+    <t>003819</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>Jauhara</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Sp.A</t>
+  </si>
+  <si>
+    <t>[Perempuan,Laki-Laki]</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Jl. Banyuwangi 13</t>
   </si>
   <si>
     <t>Islam</t>
   </si>
   <si>
-    <t>082001882001</t>
-  </si>
-  <si>
-    <t>Sayu Wiwit</t>
+    <t>082102992001</t>
+  </si>
+  <si>
+    <t>[Aktif, Non Aktif]</t>
+  </si>
+  <si>
+    <t>IGD</t>
+  </si>
+  <si>
+    <t>Non ASN</t>
   </si>
   <si>
     <t>THL</t>
   </si>
   <si>
-    <t>Aktif</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>29200-991</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>990-291</t>
   </si>
   <si>
     <t>Staff</t>
-  </si>
-  <si>
-    <t>Status Pegawai</t>
-  </si>
-  <si>
-    <t>Non ASN</t>
   </si>
 </sst>
 </file>
@@ -195,12 +207,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,33 +528,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D92C465-CF16-4365-9D24-DD489439D80A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AEF0C4-B479-496A-95B4-C610F722B97C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.44140625" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15" style="6" customWidth="1"/>
+    <col min="16" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -568,7 +586,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -580,107 +598,109 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>62711</v>
-      </c>
-      <c r="B2" s="1">
-        <v>23111</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>24100920</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>37174</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2045</v>
+        <v>34</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2040</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1">
-        <v>383200</v>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="3">
-        <v>42287</v>
-      </c>
-      <c r="U2" s="1">
-        <v>932023</v>
+        <v>38</v>
+      </c>
+      <c r="T2" s="2">
+        <v>44114</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="3">
-        <v>43352</v>
+        <v>40</v>
+      </c>
+      <c r="W2" s="2">
+        <v>44146</v>
       </c>
     </row>
   </sheetData>
